--- a/code_volume_statistics/代码量统计.xlsx
+++ b/code_volume_statistics/代码量统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12750" windowHeight="5385"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>周</t>
   </si>
@@ -40,13 +40,16 @@
     <t>删除</t>
   </si>
   <si>
-    <t>净变动</t>
+    <t>总计</t>
   </si>
   <si>
     <t>2025w7</t>
   </si>
   <si>
     <t>2025w8</t>
+  </si>
+  <si>
+    <t>2025w10</t>
   </si>
 </sst>
 </file>
@@ -685,14 +688,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1052,63 +1052,71 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>72</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>32</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1795</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1815</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code_volume_statistics/代码量统计.xlsx
+++ b/code_volume_statistics/代码量统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="22185" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>周</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>2025w10</t>
+  </si>
+  <si>
+    <t>2025w11</t>
   </si>
 </sst>
 </file>
@@ -688,11 +691,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1015,7 +1021,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1077,46 +1083,54 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1393</v>
+      </c>
+      <c r="C5" s="3">
+        <v>337</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1730</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code_volume_statistics/代码量统计.xlsx
+++ b/code_volume_statistics/代码量统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="9735"/>
+    <workbookView windowWidth="12435" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>周</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>2025w11</t>
+  </si>
+  <si>
+    <t>2025w12</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1024,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1086,21 +1089,29 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1393</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>337</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1730</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>505</v>
+      </c>
+      <c r="C6" s="3">
+        <v>175</v>
+      </c>
+      <c r="D6" s="3">
+        <v>680</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4"/>
